--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zsolt\PycharmProjects\conduit_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zsolt\PycharmProjects\conduit\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -53,9 +53,6 @@
     <t>A "sign up" gombra katintva ellenőrizzük, hogy a regisztráció lehetséges</t>
   </si>
   <si>
-    <t>ellenőrizzük, hogy a "sign in" gombra kattintva a bejelentkezés lehetésges</t>
-  </si>
-  <si>
     <t>Bejelentkezést követően ellenőrizzük, hogy a "log out" gombbal lehetséges a kijelentkezés</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>username: this is edited</t>
+  </si>
+  <si>
+    <t>ellenőrizzük, hogy a "sign in" gombra kattintva a bejelentkezés lehetséges</t>
   </si>
 </sst>
 </file>
@@ -143,15 +143,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -159,30 +165,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -467,212 +503,221 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="46" style="3" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="D5" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="D12" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="B16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="10" t="s">
         <v>4</v>
       </c>
     </row>
